--- a/BalanceSheet/WST_bal.xlsx
+++ b/BalanceSheet/WST_bal.xlsx
@@ -630,10 +630,8 @@
           <t>Other current assets</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B5" s="0" t="n">
+        <v>67400000.0</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>52000000.0</v>
@@ -886,10 +884,8 @@
           <t>Property, Plant, Equpment (Net)</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B7" s="0" t="n">
+        <v>930800000.0</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1012000000.0</v>
@@ -1015,10 +1011,8 @@
           <t>Long-Term Investments</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B8" s="0" t="n">
+        <v>211900000.0</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>215000000.0</v>
@@ -1144,10 +1138,8 @@
           <t>Goodwill and Intangible Assets (Total)</t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B9" s="0" t="n">
+        <v>138200000.0</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>142000000.0</v>
@@ -1273,10 +1265,8 @@
           <t>Long Term Assets (Tax, Deferred)</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B10" s="0" t="n">
+        <v>27900000.0</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>16000000.0</v>
@@ -1402,10 +1392,8 @@
           <t>Long-term assets (Other)</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B11" s="0" t="n">
+        <v>24800000.0</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>36000000.0</v>
@@ -1531,10 +1519,8 @@
           <t>Total non-current assets</t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B12" s="0" t="n">
+        <v>1412700000.0</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1420100000.0</v>
@@ -1787,10 +1773,8 @@
           <t>Notes Payable</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B14" s="0" t="n">
+        <v>2300000.0</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>2300000.0</v>
@@ -2057,10 +2041,8 @@
           <t>Accrued Expenses</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>69900000.0</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>106000000.0</v>
@@ -2377,10 +2359,8 @@
           <t>Current Part of Taxes to Pay</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>49700000.0</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>26000000.0</v>
@@ -2506,10 +2486,8 @@
           <t>Other current liabilities</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>147200000.0</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>237000000.0</v>
@@ -2889,10 +2867,8 @@
           <t>Non-current Revenue (Deferred)</t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B22" s="0" t="n">
+        <v>22500000.0</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>4000000.0</v>
@@ -3086,10 +3062,8 @@
           <t>Pension and Post-Retirement Liabilities</t>
         </is>
       </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B23" s="0" t="n">
+        <v>55200000.0</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>57500000.0</v>
@@ -3215,13 +3189,11 @@
           <t>Long Term Tax Liability (Deferred)</t>
         </is>
       </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B24" s="0" t="n">
+        <v>12200000.0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>-5800000.0</v>
+        <v>-6000000.0</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>-18000000.0</v>
@@ -3473,10 +3445,8 @@
           <t>Total non-current liabilities</t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B26" s="0" t="n">
+        <v>427900000.0</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>435900000.0</v>
@@ -3729,10 +3699,8 @@
           <t>Additional Paid In Capital</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>246700000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>267300000.0</v>
@@ -3858,10 +3826,8 @@
           <t>Common Stock (Net)</t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B29" s="0" t="n">
+        <v>18800000.0</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>19000000.0</v>
@@ -3987,10 +3953,8 @@
           <t>Retained Earnings</t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B30" s="0" t="n">
+        <v>1985400000.0</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1847000000.0</v>
@@ -4116,10 +4080,8 @@
           <t>Treasury Stock</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B31" s="0" t="n">
+        <v>281700000.0</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>167700000.0</v>
@@ -4499,10 +4461,8 @@
           <t>Shareholders Equity and Liabilities (Total)</t>
         </is>
       </c>
-      <c r="B34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B34" s="0" t="n">
+        <v>2739700000.0</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>2793800000.0</v>
@@ -4628,10 +4588,8 @@
           <t>Shares (Common)</t>
         </is>
       </c>
-      <c r="B35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B35" s="0" t="n">
+        <v>73800000.0</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>74000000.0</v>
@@ -4757,10 +4715,8 @@
           <t>Shareholders Equity (Tangible)</t>
         </is>
       </c>
-      <c r="B36" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B36" s="0" t="n">
+        <v>1690800000.0</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1712900000.0</v>
@@ -4902,7 +4858,7 @@
         <v>-7000000.0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>-110000000.0</v>
+        <v>-172100000.0</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>-191100000.0</v>
@@ -5029,7 +4985,7 @@
         <v>328000000.0</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>329000000.0</v>
+        <v>267000000.0</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>204900000.0</v>
